--- a/heat_map/xlsx/map_3.xlsx
+++ b/heat_map/xlsx/map_3.xlsx
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -649,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
         <v>1</v>
@@ -839,34 +839,34 @@
         <v>1</v>
       </c>
       <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
         <v>2</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1</v>
       </c>
       <c r="W5" t="n">
         <v>1</v>
@@ -922,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -1317,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
         <v>1</v>
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1730,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="Y14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z14" t="n">
         <v>1</v>
@@ -1771,43 +1771,43 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
         <v>2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>1</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -2175,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="Y24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
